--- a/static/data/source/house_price_index.xlsx
+++ b/static/data/source/house_price_index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmucciolo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19400" windowHeight="7150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>2020 Q1</t>
   </si>
   <si>
-    <t>2021 Q2</t>
+    <t>2020 Q2</t>
   </si>
 </sst>
 </file>
@@ -2738,30 +2738,30 @@
   <dimension ref="A1:DK57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="DE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DK48" sqref="DK48"/>
+      <selection pane="bottomRight" activeCell="DK4" sqref="DK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
     <col min="2" max="255" width="13.25" style="6" customWidth="1"/>
     <col min="256" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:115" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:115" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:115" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:115" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:115" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2874,7 +2874,7 @@
       <c r="DF3" s="5"/>
       <c r="DG3" s="5"/>
     </row>
-    <row r="4" spans="1:115" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:115" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>164</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:115" s="4" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:115" s="4" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>163</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>5.4017030729359403</v>
       </c>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>7.1974160883418365</v>
       </c>
     </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2.6045391245436469</v>
       </c>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>9.1334473139566246</v>
       </c>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>5.399769278551787</v>
       </c>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>4.2258892047424252</v>
       </c>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>4.4317967818208341</v>
       </c>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>2.8058043305747749</v>
       </c>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>5.6189932438861936</v>
       </c>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1.4398680270401067</v>
       </c>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>6.8415943889532596</v>
       </c>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>6.1185620188873848</v>
       </c>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>7.5442529179871611</v>
       </c>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>10.783022832329461</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>2.4654210143169055</v>
       </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>7.6842345425507661</v>
       </c>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>4.6598992886260078</v>
       </c>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>5.76648700063412</v>
       </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>4.6609828681734102</v>
       </c>
     </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>3.4120919750695435</v>
       </c>
     </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>6.4844977580193977</v>
       </c>
     </row>
-    <row r="26" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>2.8201790715102772</v>
       </c>
     </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>5.0401654069077741</v>
       </c>
     </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>5.1129907839919229</v>
       </c>
     </row>
-    <row r="29" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>5.528975741239881</v>
       </c>
     </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>3.5859397146366829</v>
       </c>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>6.4319896179738762</v>
       </c>
     </row>
-    <row r="32" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>5.074367813321123</v>
       </c>
     </row>
-    <row r="33" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>4.8220854426922131</v>
       </c>
     </row>
-    <row r="34" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>3.7511000293341006</v>
       </c>
     </row>
-    <row r="35" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>5.3307912297426183</v>
       </c>
     </row>
-    <row r="36" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>4.4998767157064146</v>
       </c>
     </row>
-    <row r="37" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>7.7405439948875649</v>
       </c>
     </row>
-    <row r="38" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>4.6575342465753389</v>
       </c>
     </row>
-    <row r="39" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>5.9364515492401786</v>
       </c>
     </row>
-    <row r="40" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>1.0773446257317159</v>
       </c>
     </row>
-    <row r="41" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>7.5031044034769359</v>
       </c>
     </row>
-    <row r="42" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>7.250030496482732</v>
       </c>
     </row>
-    <row r="43" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>5.5648010942665058</v>
       </c>
     </row>
-    <row r="44" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>39</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>4.3120798184387414</v>
       </c>
     </row>
-    <row r="45" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>40</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>4.1271820448877827</v>
       </c>
     </row>
-    <row r="46" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>41</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>5.7430710729546455</v>
       </c>
     </row>
-    <row r="47" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>42</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>3.7835559590195875</v>
       </c>
     </row>
-    <row r="48" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>43</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>7.1099168452013668</v>
       </c>
     </row>
-    <row r="49" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>4.5192243172515498</v>
       </c>
     </row>
-    <row r="50" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>45</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>8.1173402266485137</v>
       </c>
     </row>
-    <row r="51" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>46</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>3.9226950063600192</v>
       </c>
     </row>
-    <row r="52" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>47</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>4.4211859356376646</v>
       </c>
     </row>
-    <row r="53" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>48</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>8.6020367676233249</v>
       </c>
     </row>
-    <row r="54" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>49</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>1.0802259887005587</v>
       </c>
     </row>
-    <row r="55" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>5.9097460915844362</v>
       </c>
     </row>
-    <row r="56" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>51</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>5.0482990340193279</v>
       </c>
     </row>
-    <row r="57" spans="1:115" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:115" x14ac:dyDescent="0.2">
       <c r="DK57" s="11"/>
     </row>
   </sheetData>
